--- a/dissertation/aim1/ref/Taxonomy_Complete.xlsx
+++ b/dissertation/aim1/ref/Taxonomy_Complete.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sevillas2\Google Drive\MyDocuments_Current\Education\George Mason University\Dissertation\Data\Aim1\taxonomy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/sevillas2/git/gmu/dissertation/aim1/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EEFE8B-FFD9-4966-B604-AA0475D0039F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC373A1-F244-6348-9A45-C03569D0222F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
     <sheet name="2018_Complete" sheetId="1" r:id="rId2"/>
     <sheet name="2019_09_Complete" sheetId="2" r:id="rId3"/>
     <sheet name="2020_04_Complete" sheetId="7" r:id="rId4"/>
+    <sheet name="Tax_tab" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2019_09_Complete'!$A$1:$X$26</definedName>
@@ -27,7 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -69,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="317">
   <si>
     <t>Domain</t>
   </si>
@@ -1011,12 +1015,24 @@
   </si>
   <si>
     <t>Schaalia</t>
+  </si>
+  <si>
+    <t>Gram Designation</t>
+  </si>
+  <si>
+    <t>D6300,D6305,D6306</t>
+  </si>
+  <si>
+    <t>Expected Relative Abundance (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0E+00"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1513,10 +1529,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1562,7 +1579,77 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1900,16 +1987,16 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -1947,12 +2034,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2019.09</v>
       </c>
@@ -1972,7 +2059,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>254</v>
       </c>
@@ -2002,24 +2089,24 @@
       <selection activeCell="D27" sqref="A1:R48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2128,7 +2215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2184,7 +2271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2240,7 +2327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>47</v>
       </c>
@@ -2296,7 +2383,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2352,7 +2439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2408,7 +2495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2464,7 +2551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2520,7 +2607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2576,7 +2663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2632,7 +2719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2688,7 +2775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2744,7 +2831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2800,7 +2887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2856,7 +2943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2912,7 +2999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2968,7 +3055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3024,7 +3111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3080,7 +3167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3136,7 +3223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3192,7 +3279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3248,7 +3335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3304,7 +3391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3360,7 +3447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>46</v>
       </c>
@@ -3416,7 +3503,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
@@ -3472,7 +3559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3528,7 +3615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3584,7 +3671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3640,7 +3727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3696,7 +3783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3752,7 +3839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3808,7 +3895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3864,7 +3951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3920,7 +4007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3976,7 +4063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -4032,7 +4119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -4088,7 +4175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -4144,7 +4231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -4200,7 +4287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -4256,7 +4343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -4312,7 +4399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -4368,7 +4455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -4424,7 +4511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -4480,7 +4567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -4536,7 +4623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -4592,7 +4679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -4648,7 +4735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -4717,30 +4804,30 @@
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="141.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="141.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4808,7 +4895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4879,7 +4966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4950,7 +5037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5021,7 +5108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5092,7 +5179,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5163,7 +5250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5234,7 +5321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5305,7 +5392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5376,7 +5463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5447,7 +5534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5518,7 +5605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -5589,7 +5676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5660,7 +5747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5731,7 +5818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5802,7 +5889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5873,7 +5960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5944,7 +6031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6015,7 +6102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6088,7 +6175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6159,7 +6246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6230,7 +6317,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6301,7 +6388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6372,7 +6459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6443,7 +6530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6514,7 +6601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6585,7 +6672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6656,7 +6743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6727,7 +6814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6798,7 +6885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6869,7 +6956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6940,7 +7027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7011,7 +7098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7082,7 +7169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7153,7 +7240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7224,7 +7311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7295,7 +7382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7366,7 +7453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7437,7 +7524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7508,7 +7595,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -7579,7 +7666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -7650,7 +7737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -7721,7 +7808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>15</v>
       </c>
@@ -7792,7 +7879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -7863,7 +7950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>21</v>
       </c>
@@ -7934,7 +8021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>35</v>
       </c>
@@ -8005,7 +8092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>36</v>
       </c>
@@ -8078,10 +8165,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H27 H29:H39">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H47">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8092,34 +8179,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF826DF-C94F-453E-BBBA-7805B152B5F7}">
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" activeCellId="2" sqref="F1:F1048576 H1:H1048576 J1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="2" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="11" style="2" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="2" customWidth="1"/>
-    <col min="13" max="14" width="14.28515625" style="2" customWidth="1"/>
-    <col min="15" max="17" width="16.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="12" width="14.83203125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="14.33203125" style="2" customWidth="1"/>
+    <col min="15" max="17" width="16.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8184,7 +8271,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -8250,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -8316,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -8382,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -8448,7 +8535,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -8514,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -8580,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -8646,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -8712,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -8778,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -8844,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -8910,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -8976,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -9042,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -9108,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -9174,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -9240,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9306,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -9372,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -9438,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -9504,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -9570,7 +9657,7 @@
         <v>6.9000000000000008E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -9636,7 +9723,7 @@
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -9702,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -9768,7 +9855,7 @@
         <v>6.7000000000000002E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -9834,7 +9921,7 @@
         <v>6.7000000000000002E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -9900,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -9966,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -10032,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -10098,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -10164,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -10230,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -10296,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -10362,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -10428,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -10494,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -10560,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -10626,7 +10713,7 @@
         <v>1.2E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -10692,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -10758,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -10824,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -10890,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -10956,7 +11043,7 @@
         <v>0.95900000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -11022,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -11088,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -11154,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -11220,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -11286,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -11352,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -11418,7 +11505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -11484,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -11550,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -11616,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
@@ -11682,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -11748,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -11814,7 +11901,7 @@
         <v>2.7999999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -11880,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -11946,7 +12033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -12012,7 +12099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -12078,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -12144,7 +12231,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -12210,7 +12297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -12276,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -12342,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -12408,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -12474,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -12540,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -12606,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -12672,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -12738,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -12804,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -12877,11 +12964,1780 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:U72">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="10" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D895A2-6D19-6843-A28C-EFDBAA93D6AB}">
+  <dimension ref="A1:E120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C101" sqref="A1:E120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3.6609131403118043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.3524498886414253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.6609131403118043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.6609131403118043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3.6609131403118043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.1759465478841875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.0879732739420938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6.2639198218262804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.5729398663697107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.1791460611548379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6.2687190917322555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6.2687190917322555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3.1343595458661277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.52239325764435474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.10447865152887092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3.6637180469457409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4.1791460611548379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6.2687190917322555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5.2239325764435467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6.2687190917322555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6.2687190917322555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5.2239325764435467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.10447865152887092</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6.2687190917322555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3.1343595458661277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3">
+        <v>6.2687190917322555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3.6637180469457409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="3">
+        <v>6.2687190917322555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6.2687190917322555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5.2239325764435467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5.2239325764435467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4.4799999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4.4799999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="3">
+        <v>44.78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="3">
+        <v>44.78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" t="s">
+        <v>175</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>315</v>
+      </c>
+      <c r="B104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" s="3">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>97</v>
+      </c>
+      <c r="C105" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="3">
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" t="s">
+        <v>123</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" s="3">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" t="s">
+        <v>128</v>
+      </c>
+      <c r="D108" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" s="3">
+        <v>14.099999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>150</v>
+      </c>
+      <c r="C109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" t="s">
+        <v>101</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="3">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" t="s">
+        <v>175</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" s="3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>249</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="3">
+        <v>6.7000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" s="3">
+        <v>6.7000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" t="s">
+        <v>101</v>
+      </c>
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+      <c r="E117" s="3">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>150</v>
+      </c>
+      <c r="C118" t="s">
+        <v>148</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>174</v>
+      </c>
+      <c r="C119" t="s">
+        <v>101</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>177</v>
+      </c>
+      <c r="C120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" s="3">
+        <v>9.9999999999999991E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B112:E120">
+    <sortCondition ref="B112:B120"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:D120">
+    <cfRule type="containsBlanks" dxfId="9" priority="7">
+      <formula>LEN(TRIM(B2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsBlanks" dxfId="8" priority="20">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="containsBlanks" dxfId="7" priority="18">
+      <formula>LEN(TRIM(A22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="containsBlanks" dxfId="6" priority="17">
+      <formula>LEN(TRIM(A44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="containsBlanks" dxfId="3" priority="5">
+      <formula>LEN(TRIM(A112))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A64))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A54))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A84))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>